--- a/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Gnai2-Cxcr1.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Gnai2-Cxcr1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="25">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -446,7 +446,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T7"/>
+  <dimension ref="A1:T4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -525,7 +525,7 @@
         <v>24</v>
       </c>
       <c r="D2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E2">
         <v>3</v>
@@ -534,16 +534,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>184.0626906666667</v>
+        <v>63.91118233333333</v>
       </c>
       <c r="H2">
-        <v>552.188072</v>
+        <v>191.733547</v>
       </c>
       <c r="I2">
-        <v>0.6510505751503485</v>
+        <v>0.4067926910433548</v>
       </c>
       <c r="J2">
-        <v>0.6510505751503486</v>
+        <v>0.4067926910433549</v>
       </c>
       <c r="K2">
         <v>1</v>
@@ -552,33 +552,33 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M2">
-        <v>5.973506333333333</v>
+        <v>0.001809666666666667</v>
       </c>
       <c r="N2">
-        <v>17.920519</v>
+        <v>0.005429</v>
       </c>
       <c r="O2">
-        <v>0.9996971429349232</v>
+        <v>1</v>
       </c>
       <c r="P2">
-        <v>0.9996971429349232</v>
+        <v>1</v>
       </c>
       <c r="Q2">
-        <v>1099.499648427708</v>
+        <v>0.1156579362958889</v>
       </c>
       <c r="R2">
-        <v>9895.496835849368</v>
+        <v>1.040921426663</v>
       </c>
       <c r="S2">
-        <v>0.6508533998839419</v>
+        <v>0.4067926910433548</v>
       </c>
       <c r="T2">
-        <v>0.650853399883942</v>
+        <v>0.4067926910433549</v>
       </c>
     </row>
     <row r="3" spans="1:20">
       <c r="A3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B3" t="s">
         <v>23</v>
@@ -596,16 +596,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>184.0626906666667</v>
+        <v>57.4434</v>
       </c>
       <c r="H3">
-        <v>552.188072</v>
+        <v>172.3302</v>
       </c>
       <c r="I3">
-        <v>0.6510505751503485</v>
+        <v>0.3656254573230189</v>
       </c>
       <c r="J3">
-        <v>0.6510505751503486</v>
+        <v>0.365625457323019</v>
       </c>
       <c r="K3">
         <v>1</v>
@@ -620,27 +620,27 @@
         <v>0.005429</v>
       </c>
       <c r="O3">
-        <v>0.0003028570650768373</v>
+        <v>1</v>
       </c>
       <c r="P3">
-        <v>0.0003028570650768372</v>
+        <v>1</v>
       </c>
       <c r="Q3">
-        <v>0.3330921158764444</v>
+        <v>0.1039534062</v>
       </c>
       <c r="R3">
-        <v>2.997829042888</v>
+        <v>0.9355806557999999</v>
       </c>
       <c r="S3">
-        <v>0.0001971752664066214</v>
+        <v>0.3656254573230189</v>
       </c>
       <c r="T3">
-        <v>0.0001971752664066214</v>
+        <v>0.365625457323019</v>
       </c>
     </row>
     <row r="4" spans="1:20">
       <c r="A4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B4" t="s">
         <v>23</v>
@@ -649,7 +649,7 @@
         <v>24</v>
       </c>
       <c r="D4" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E4">
         <v>3</v>
@@ -658,16 +658,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>57.4434</v>
+        <v>35.755375</v>
       </c>
       <c r="H4">
-        <v>172.3302</v>
+        <v>107.266125</v>
       </c>
       <c r="I4">
-        <v>0.2031838091312023</v>
+        <v>0.2275818516336261</v>
       </c>
       <c r="J4">
-        <v>0.2031838091312023</v>
+        <v>0.2275818516336262</v>
       </c>
       <c r="K4">
         <v>1</v>
@@ -676,214 +676,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M4">
-        <v>5.973506333333333</v>
+        <v>0.001809666666666667</v>
       </c>
       <c r="N4">
-        <v>17.920519</v>
+        <v>0.005429</v>
       </c>
       <c r="O4">
-        <v>0.9996971429349232</v>
+        <v>1</v>
       </c>
       <c r="P4">
-        <v>0.9996971429349232</v>
+        <v>1</v>
       </c>
       <c r="Q4">
-        <v>343.1385137082</v>
+        <v>0.06470531029166667</v>
       </c>
       <c r="R4">
-        <v>3088.2466233738</v>
+        <v>0.582347792625</v>
       </c>
       <c r="S4">
-        <v>0.2031222734790977</v>
+        <v>0.2275818516336261</v>
       </c>
       <c r="T4">
-        <v>0.2031222734790977</v>
-      </c>
-    </row>
-    <row r="5" spans="1:20">
-      <c r="A5" t="s">
-        <v>21</v>
-      </c>
-      <c r="B5" t="s">
-        <v>23</v>
-      </c>
-      <c r="C5" t="s">
-        <v>24</v>
-      </c>
-      <c r="D5" t="s">
-        <v>21</v>
-      </c>
-      <c r="E5">
-        <v>3</v>
-      </c>
-      <c r="F5">
-        <v>1</v>
-      </c>
-      <c r="G5">
-        <v>57.4434</v>
-      </c>
-      <c r="H5">
-        <v>172.3302</v>
-      </c>
-      <c r="I5">
-        <v>0.2031838091312023</v>
-      </c>
-      <c r="J5">
-        <v>0.2031838091312023</v>
-      </c>
-      <c r="K5">
-        <v>1</v>
-      </c>
-      <c r="L5">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="M5">
-        <v>0.001809666666666667</v>
-      </c>
-      <c r="N5">
-        <v>0.005429</v>
-      </c>
-      <c r="O5">
-        <v>0.0003028570650768373</v>
-      </c>
-      <c r="P5">
-        <v>0.0003028570650768372</v>
-      </c>
-      <c r="Q5">
-        <v>0.1039534062</v>
-      </c>
-      <c r="R5">
-        <v>0.9355806558</v>
-      </c>
-      <c r="S5">
-        <v>6.153565210460823E-05</v>
-      </c>
-      <c r="T5">
-        <v>6.153565210460821E-05</v>
-      </c>
-    </row>
-    <row r="6" spans="1:20">
-      <c r="A6" t="s">
-        <v>22</v>
-      </c>
-      <c r="B6" t="s">
-        <v>23</v>
-      </c>
-      <c r="C6" t="s">
-        <v>24</v>
-      </c>
-      <c r="D6" t="s">
-        <v>20</v>
-      </c>
-      <c r="E6">
-        <v>3</v>
-      </c>
-      <c r="F6">
-        <v>1</v>
-      </c>
-      <c r="G6">
-        <v>41.21033366666667</v>
-      </c>
-      <c r="H6">
-        <v>123.631001</v>
-      </c>
-      <c r="I6">
-        <v>0.1457656157184491</v>
-      </c>
-      <c r="J6">
-        <v>0.1457656157184491</v>
-      </c>
-      <c r="K6">
-        <v>1</v>
-      </c>
-      <c r="L6">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="M6">
-        <v>5.973506333333333</v>
-      </c>
-      <c r="N6">
-        <v>17.920519</v>
-      </c>
-      <c r="O6">
-        <v>0.9996971429349232</v>
-      </c>
-      <c r="P6">
-        <v>0.9996971429349232</v>
-      </c>
-      <c r="Q6">
-        <v>246.1701891566132</v>
-      </c>
-      <c r="R6">
-        <v>2215.531702409519</v>
-      </c>
-      <c r="S6">
-        <v>0.1457214695718835</v>
-      </c>
-      <c r="T6">
-        <v>0.1457214695718835</v>
-      </c>
-    </row>
-    <row r="7" spans="1:20">
-      <c r="A7" t="s">
-        <v>22</v>
-      </c>
-      <c r="B7" t="s">
-        <v>23</v>
-      </c>
-      <c r="C7" t="s">
-        <v>24</v>
-      </c>
-      <c r="D7" t="s">
-        <v>21</v>
-      </c>
-      <c r="E7">
-        <v>3</v>
-      </c>
-      <c r="F7">
-        <v>1</v>
-      </c>
-      <c r="G7">
-        <v>41.21033366666667</v>
-      </c>
-      <c r="H7">
-        <v>123.631001</v>
-      </c>
-      <c r="I7">
-        <v>0.1457656157184491</v>
-      </c>
-      <c r="J7">
-        <v>0.1457656157184491</v>
-      </c>
-      <c r="K7">
-        <v>1</v>
-      </c>
-      <c r="L7">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="M7">
-        <v>0.001809666666666667</v>
-      </c>
-      <c r="N7">
-        <v>0.005429</v>
-      </c>
-      <c r="O7">
-        <v>0.0003028570650768373</v>
-      </c>
-      <c r="P7">
-        <v>0.0003028570650768372</v>
-      </c>
-      <c r="Q7">
-        <v>0.07457696715877779</v>
-      </c>
-      <c r="R7">
-        <v>0.671192704429</v>
-      </c>
-      <c r="S7">
-        <v>4.41461465656076E-05</v>
-      </c>
-      <c r="T7">
-        <v>4.41461465656076E-05</v>
+        <v>0.2275818516336262</v>
       </c>
     </row>
   </sheetData>
